--- a/Results/comparison_results/Hard_comparison/Hard_react_comparison_Results.xlsx
+++ b/Results/comparison_results/Hard_comparison/Hard_react_comparison_Results.xlsx
@@ -471,8 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot13 to location (6, 10) and remove the toolkit.
-</t>
+          <t>Move Robot40 to location (4, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -497,8 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot39 to location (8, 12) and remove the liquid spill.
-</t>
+          <t>Move Robot40 to location (6, 2) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -523,12 +521,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot31 to location (12, 10) and remove the large debris.
-</t>
+          <t>Move Robot9 to location (12, 3) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -549,12 +546,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot22 to location (5, 2) and remove the dust.
-</t>
+          <t>Move Robot35 to location (2, 11) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -575,8 +571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot23 to location (10, 12) and remove the grass.
-</t>
+          <t>Move Robot26 to location (12, 1) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -601,8 +596,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot6 to location (8, 2) and remove the small debris.
-</t>
+          <t>Move Robot41 to location (4, 11) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -627,8 +621,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot45 to location (2, 8) and remove the vehicle.
-</t>
+          <t>Move Robot2 to location (9, 1) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -653,8 +646,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot21 to location (1, 10) and remove the construction materials.
-</t>
+          <t>Move Robot28 to location (11, 6) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -679,8 +671,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot8 to location (8, 8) and remove the tree branches.
-</t>
+          <t>Move Robot39 to location (6, 1) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -705,8 +696,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot31 to location (1, 11) and remove the screws.
-</t>
+          <t>Move Robot28 to location (2, 8) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="b">

--- a/Results/comparison_results/Hard_comparison/Hard_react_comparison_Results.xlsx
+++ b/Results/comparison_results/Hard_comparison/Hard_react_comparison_Results.xlsx
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>

--- a/Results/comparison_results/Hard_comparison/Hard_react_comparison_Results.xlsx
+++ b/Results/comparison_results/Hard_comparison/Hard_react_comparison_Results.xlsx
@@ -434,8 +434,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
@@ -471,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot40 to location (4, 8) and remove the toolkit.</t>
+          <t>Move Robot21 to location (6, 12) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -496,11 +498,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot40 to location (6, 2) and remove the liquid spill.</t>
+          <t>Move Robot41 to location (1, 11) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -521,7 +523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot9 to location (12, 3) and remove the large debris.</t>
+          <t>Move Robot9 to location (1, 5) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -546,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot35 to location (2, 11) and remove the dust.</t>
+          <t>Move Robot42 to location (1, 11) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -571,7 +573,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot26 to location (12, 1) and remove the grass.</t>
+          <t>Move Robot32 to location (3, 9) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -596,11 +598,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (4, 11) and remove the small debris.</t>
+          <t>Move Robot14 to location (11, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -621,7 +623,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot2 to location (9, 1) and remove the vehicle.</t>
+          <t>Move Robot39 to location (6, 4) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -646,7 +648,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot28 to location (11, 6) and remove the construction materials.</t>
+          <t>Move Robot15 to location (11, 2) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -671,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot39 to location (6, 1) and remove the tree branches.</t>
+          <t>Move Robot2 to location (1, 10) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -696,7 +698,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot28 to location (2, 8) and remove the screws.</t>
+          <t>Move Robot26 to location (1, 3) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="b">
